--- a/pyhon_zh_web/testdata/工作簿2.xlsx
+++ b/pyhon_zh_web/testdata/工作簿2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hnbl009/gitfile/pyhon_zh_web/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hnbl009/gitfile/webtest/pyhon_zh_web/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{223E3086-B0B7-C64E-B70C-3B67BEE71712}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30A1CF6C-B451-1246-99D0-4E45D9170511}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33620" yWindow="1580" windowWidth="27560" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登陆账号" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>序号</t>
   </si>
@@ -32,44 +32,32 @@
     <t>密码</t>
   </si>
   <si>
+    <t>验证语</t>
+  </si>
+  <si>
+    <t>应用管理员</t>
+  </si>
+  <si>
+    <t>收费员0</t>
+  </si>
+  <si>
     <t>收费管理1</t>
+  </si>
+  <si>
+    <t>Apr 24 2019 16:19:12</t>
+  </si>
+  <si>
+    <t>hahahahah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">snansanmca </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否全局匹配</t>
     <rPh sb="0" eb="2">
-      <t>shou'fe</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费员0</t>
-    <rPh sb="0" eb="1">
-      <t>shou'fe</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证语</t>
-    <rPh sb="0" eb="2">
-      <t>yan'zhen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费3 · 智社区</t>
-    <rPh sb="0" eb="1">
-      <t>yon'hu'min</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智社区</t>
-    <rPh sb="0" eb="2">
-      <t>zhi'she'q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用管理员</t>
-    <rPh sb="0" eb="2">
-      <t>ying'yon</t>
+      <t>shi'fo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -466,9 +454,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
@@ -482,7 +472,13 @@
         <v>111111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
@@ -496,7 +492,10 @@
         <v>111111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
@@ -510,9 +509,11 @@
         <v>123456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5">
@@ -525,9 +526,14 @@
         <v>111111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -573,7 +579,7 @@
         <v>111111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/pyhon_zh_web/testdata/工作簿2.xlsx
+++ b/pyhon_zh_web/testdata/工作簿2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hnbl009/gitfile/webtest/pyhon_zh_web/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30A1CF6C-B451-1246-99D0-4E45D9170511}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82F4A0E3-AC9D-E744-80BB-1079B9FF7641}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33620" yWindow="1580" windowWidth="27560" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -531,9 +531,6 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
